--- a/config_debug/sign_in_config_server_cpl.xlsx
+++ b/config_debug/sign_in_config_server_cpl.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="4" r:id="rId1"/>
@@ -936,8 +936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1048,7 +1048,7 @@
         <v>2</v>
       </c>
       <c r="E4" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
@@ -1094,12 +1094,6 @@
         <v>18</v>
       </c>
       <c r="C6" s="6"/>
-      <c r="D6" s="6">
-        <v>3</v>
-      </c>
-      <c r="E6" s="6">
-        <v>3</v>
-      </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
@@ -1121,8 +1115,12 @@
         <v>19</v>
       </c>
       <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
+      <c r="D7" s="6">
+        <v>3</v>
+      </c>
+      <c r="E7" s="6">
+        <v>3</v>
+      </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
@@ -1144,8 +1142,12 @@
         <v>20</v>
       </c>
       <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
+      <c r="D8" s="6">
+        <v>5</v>
+      </c>
+      <c r="E8" s="6">
+        <v>3</v>
+      </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
@@ -1503,7 +1505,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
